--- a/code/funciones de daño.xlsx
+++ b/code/funciones de daño.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CLIMADA\climada_modules\_local\code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjuar\Documents\CLIMADA\climada_modules\_local\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -416,7 +416,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1655,16 +1654,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="29.5" customWidth="1"/>
+    <col min="6" max="6" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1687,7 +1686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1210</v>
       </c>
@@ -1710,7 +1709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1210</v>
       </c>
@@ -1736,7 +1735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1210</v>
       </c>
@@ -1780,7 +1779,7 @@
         <v>1.26860993804682E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1210</v>
       </c>
@@ -1803,7 +1802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1210</v>
       </c>
@@ -1826,7 +1825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1210</v>
       </c>
@@ -1849,7 +1848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1210</v>
       </c>
@@ -1872,7 +1871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1210</v>
       </c>
@@ -1895,7 +1894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1210</v>
       </c>
@@ -1918,7 +1917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1210</v>
       </c>
@@ -1941,7 +1940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1210</v>
       </c>
@@ -1964,7 +1963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1210</v>
       </c>
@@ -1987,7 +1986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1210</v>
       </c>
@@ -2010,7 +2009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1210</v>
       </c>
@@ -2033,7 +2032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1210</v>
       </c>
@@ -2056,7 +2055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1210</v>
       </c>
@@ -2079,7 +2078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1210</v>
       </c>
@@ -2102,7 +2101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1210</v>
       </c>
@@ -2125,7 +2124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1210</v>
       </c>
@@ -2148,7 +2147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1210</v>
       </c>
@@ -2171,7 +2170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1210</v>
       </c>
@@ -2194,7 +2193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1210</v>
       </c>
@@ -2217,7 +2216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1210</v>
       </c>
@@ -2240,7 +2239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1210</v>
       </c>
@@ -2263,7 +2262,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1210</v>
       </c>
@@ -2286,7 +2285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1210</v>
       </c>
@@ -2309,7 +2308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1210</v>
       </c>
@@ -2332,7 +2331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1210</v>
       </c>
@@ -2355,7 +2354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1210</v>
       </c>
@@ -2378,7 +2377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1210</v>
       </c>
@@ -2404,7 +2403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1220</v>
       </c>
@@ -2448,7 +2447,7 @@
         <v>1.8510132388643E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1220</v>
       </c>
@@ -2471,7 +2470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1220</v>
       </c>
@@ -2494,7 +2493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1220</v>
       </c>
@@ -2517,7 +2516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1220</v>
       </c>
@@ -2540,7 +2539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1220</v>
       </c>
@@ -2563,7 +2562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1220</v>
       </c>
@@ -2586,7 +2585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1220</v>
       </c>
@@ -2609,7 +2608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1220</v>
       </c>
@@ -2632,7 +2631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1220</v>
       </c>
@@ -2655,7 +2654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1220</v>
       </c>
@@ -2678,7 +2677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1220</v>
       </c>
@@ -2701,7 +2700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1220</v>
       </c>
@@ -2724,7 +2723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1220</v>
       </c>
@@ -2747,7 +2746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1220</v>
       </c>
@@ -2770,7 +2769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1220</v>
       </c>
@@ -2793,7 +2792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1220</v>
       </c>
@@ -2816,7 +2815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1220</v>
       </c>
@@ -2839,7 +2838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1220</v>
       </c>
@@ -2862,7 +2861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1220</v>
       </c>
@@ -2885,7 +2884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1220</v>
       </c>
@@ -2908,7 +2907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1220</v>
       </c>
@@ -2931,7 +2930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1220</v>
       </c>
@@ -2954,7 +2953,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1220</v>
       </c>
@@ -2977,7 +2976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1220</v>
       </c>
@@ -3000,7 +2999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1220</v>
       </c>
@@ -3023,7 +3022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1220</v>
       </c>
@@ -3049,7 +3048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1230</v>
       </c>
@@ -3093,7 +3092,7 @@
         <v>-4.4964151480197702E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1230</v>
       </c>
@@ -3116,7 +3115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1230</v>
       </c>
@@ -3139,7 +3138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1230</v>
       </c>
@@ -3162,7 +3161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1230</v>
       </c>
@@ -3185,7 +3184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1230</v>
       </c>
@@ -3208,7 +3207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1230</v>
       </c>
@@ -3231,7 +3230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1230</v>
       </c>
@@ -3254,7 +3253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1230</v>
       </c>
@@ -3277,7 +3276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1230</v>
       </c>
@@ -3300,7 +3299,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1230</v>
       </c>
@@ -3323,7 +3322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1230</v>
       </c>
@@ -3346,7 +3345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1230</v>
       </c>
@@ -3369,7 +3368,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1230</v>
       </c>
@@ -3392,7 +3391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1230</v>
       </c>
@@ -3415,7 +3414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1230</v>
       </c>
@@ -3438,7 +3437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1230</v>
       </c>
@@ -3461,7 +3460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1230</v>
       </c>
@@ -3484,7 +3483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1230</v>
       </c>
@@ -3507,7 +3506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1230</v>
       </c>
@@ -3530,7 +3529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1230</v>
       </c>
@@ -3553,7 +3552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1230</v>
       </c>
@@ -3576,7 +3575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1230</v>
       </c>
@@ -3599,7 +3598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1230</v>
       </c>
@@ -3622,7 +3621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1230</v>
       </c>
@@ -3645,7 +3644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1230</v>
       </c>
@@ -3668,7 +3667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1230</v>
       </c>
@@ -3694,7 +3693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1240</v>
       </c>
@@ -3738,7 +3737,7 @@
         <v>2.46031628249695E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1240</v>
       </c>
@@ -3761,7 +3760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1240</v>
       </c>
@@ -3784,7 +3783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1240</v>
       </c>
@@ -3807,7 +3806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1240</v>
       </c>
@@ -3830,7 +3829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1240</v>
       </c>
@@ -3853,7 +3852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1240</v>
       </c>
@@ -3876,7 +3875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1240</v>
       </c>
@@ -3899,7 +3898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1240</v>
       </c>
@@ -3922,7 +3921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1240</v>
       </c>
@@ -3945,7 +3944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1240</v>
       </c>
@@ -3968,7 +3967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1240</v>
       </c>
@@ -3991,7 +3990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1240</v>
       </c>
@@ -4014,7 +4013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1240</v>
       </c>
@@ -4037,7 +4036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1240</v>
       </c>
@@ -4060,7 +4059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1240</v>
       </c>
@@ -4083,7 +4082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1240</v>
       </c>
@@ -4106,7 +4105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1240</v>
       </c>
@@ -4129,7 +4128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1240</v>
       </c>
@@ -4152,7 +4151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1240</v>
       </c>
@@ -4175,7 +4174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1240</v>
       </c>
@@ -4198,7 +4197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1240</v>
       </c>
@@ -4221,7 +4220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1240</v>
       </c>
@@ -4244,7 +4243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1240</v>
       </c>
@@ -4267,7 +4266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1240</v>
       </c>
@@ -4290,7 +4289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1240</v>
       </c>
@@ -4313,7 +4312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1240</v>
       </c>
@@ -4339,7 +4338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1250</v>
       </c>
@@ -4383,7 +4382,7 @@
         <v>2.46031628249695E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1250</v>
       </c>
@@ -4406,7 +4405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1250</v>
       </c>
@@ -4429,7 +4428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1250</v>
       </c>
@@ -4452,7 +4451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1250</v>
       </c>
@@ -4475,7 +4474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1250</v>
       </c>
@@ -4498,7 +4497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1250</v>
       </c>
@@ -4521,7 +4520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1250</v>
       </c>
@@ -4544,7 +4543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1250</v>
       </c>
@@ -4567,7 +4566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1250</v>
       </c>
@@ -4590,7 +4589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1250</v>
       </c>
@@ -4613,7 +4612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1250</v>
       </c>
@@ -4636,7 +4635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1250</v>
       </c>
@@ -4659,7 +4658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1250</v>
       </c>
@@ -4682,7 +4681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1250</v>
       </c>
@@ -4705,7 +4704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1250</v>
       </c>
@@ -4728,7 +4727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1250</v>
       </c>
@@ -4751,7 +4750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1250</v>
       </c>
@@ -4774,7 +4773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1250</v>
       </c>
@@ -4797,7 +4796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1250</v>
       </c>
@@ -4820,7 +4819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1250</v>
       </c>
@@ -4843,7 +4842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1250</v>
       </c>
@@ -4866,7 +4865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1250</v>
       </c>
@@ -4889,7 +4888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1250</v>
       </c>
@@ -4912,7 +4911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1250</v>
       </c>
@@ -4935,7 +4934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1250</v>
       </c>
@@ -4958,7 +4957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1250</v>
       </c>
@@ -4984,7 +4983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1310</v>
       </c>
@@ -5037,7 +5036,7 @@
         <v>-37.1012708675403</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1310</v>
       </c>
@@ -5057,7 +5056,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1310</v>
       </c>
@@ -5077,7 +5076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1310</v>
       </c>
@@ -5097,7 +5096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1310</v>
       </c>
@@ -5117,7 +5116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1310</v>
       </c>
@@ -5137,7 +5136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1310</v>
       </c>
@@ -5157,7 +5156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1310</v>
       </c>
@@ -5177,7 +5176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1310</v>
       </c>
@@ -5197,7 +5196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1310</v>
       </c>
@@ -5217,7 +5216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1310</v>
       </c>
@@ -5237,7 +5236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1310</v>
       </c>
@@ -5257,7 +5256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1310</v>
       </c>
@@ -5277,7 +5276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1310</v>
       </c>
@@ -5297,7 +5296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1310</v>
       </c>
@@ -5317,7 +5316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1310</v>
       </c>
@@ -5337,7 +5336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1310</v>
       </c>
@@ -5357,7 +5356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1310</v>
       </c>
@@ -5377,7 +5376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1310</v>
       </c>
@@ -5397,7 +5396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1310</v>
       </c>
@@ -5417,7 +5416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1310</v>
       </c>
@@ -5437,7 +5436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1310</v>
       </c>
@@ -5457,7 +5456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1310</v>
       </c>
@@ -5477,7 +5476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1310</v>
       </c>
@@ -5497,7 +5496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1310</v>
       </c>
@@ -5517,7 +5516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1310</v>
       </c>
@@ -5537,7 +5536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1310</v>
       </c>
@@ -5557,7 +5556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1410</v>
       </c>
@@ -5580,7 +5579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1410</v>
       </c>
@@ -5600,7 +5599,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1410</v>
       </c>
@@ -5647,7 +5646,7 @@
         <v>3.5087305225115399E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1410</v>
       </c>
@@ -5667,7 +5666,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1410</v>
       </c>
@@ -5687,7 +5686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1410</v>
       </c>
@@ -5707,7 +5706,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1410</v>
       </c>
@@ -5727,7 +5726,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1410</v>
       </c>
@@ -5747,7 +5746,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1410</v>
       </c>
@@ -5767,7 +5766,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1410</v>
       </c>
@@ -5787,7 +5786,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1410</v>
       </c>
@@ -5807,7 +5806,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1410</v>
       </c>
@@ -5827,7 +5826,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1410</v>
       </c>
@@ -5847,7 +5846,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1410</v>
       </c>
@@ -5867,7 +5866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1410</v>
       </c>
@@ -5887,7 +5886,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1410</v>
       </c>
@@ -5907,7 +5906,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1410</v>
       </c>
@@ -5927,7 +5926,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1410</v>
       </c>
@@ -5947,7 +5946,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1410</v>
       </c>
@@ -5967,7 +5966,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1410</v>
       </c>
@@ -5987,7 +5986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1410</v>
       </c>
@@ -6007,7 +6006,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1410</v>
       </c>
@@ -6027,7 +6026,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1410</v>
       </c>
@@ -6047,7 +6046,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1410</v>
       </c>
@@ -6067,7 +6066,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1410</v>
       </c>
@@ -6087,7 +6086,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1410</v>
       </c>
@@ -6107,7 +6106,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1410</v>
       </c>
@@ -6140,7 +6139,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/code/funciones de daño.xlsx
+++ b/code/funciones de daño.xlsx
@@ -166,6 +166,12 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Hoja2!$B$2:$B$31</c:f>
@@ -416,6 +422,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1654,7 +1661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
